--- a/StructureDefinition-ext-R5-Appointment.participant.xlsx
+++ b/StructureDefinition-ext-R5-Appointment.participant.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="176">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -414,15 +414,6 @@
 </t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Role of participant in encounter.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-encounter-participant-type-for-R4</t>
-  </si>
-  <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
@@ -500,7 +491,7 @@
     <t>Extension.extension:actor.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Group|0.0.1-snapshot-3|Group|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|0.0.1-snapshot-3|CareTeam|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Group|Group|http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|CareTeam)
 </t>
   </si>
   <si>
@@ -575,12 +566,6 @@
   <si>
     <t xml:space="preserve">code
 </t>
-  </si>
-  <si>
-    <t>The Participation status of an appointment.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-participationstatus-for-R4</t>
   </si>
   <si>
     <t>base64Binary
@@ -940,8 +925,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="35.80078125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="65.234375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -1861,43 +1846,43 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="Y9" t="s" s="2">
+      <c r="AG9" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>121</v>
@@ -1905,13 +1890,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1936,14 +1921,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2012,7 +1997,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>106</v>
@@ -2115,7 +2100,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>108</v>
@@ -2220,7 +2205,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>114</v>
@@ -2263,7 +2248,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2325,7 +2310,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>123</v>
@@ -2351,13 +2336,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2408,7 +2393,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>83</v>
@@ -2420,7 +2405,7 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>121</v>
@@ -2428,13 +2413,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2459,16 +2444,16 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="O15" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2537,7 +2522,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>106</v>
@@ -2640,7 +2625,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>108</v>
@@ -2745,7 +2730,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>114</v>
@@ -2788,7 +2773,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2850,7 +2835,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>123</v>
@@ -2876,16 +2861,16 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -2935,7 +2920,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>83</v>
@@ -2947,7 +2932,7 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>121</v>
@@ -2955,13 +2940,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -2986,16 +2971,16 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="O20" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3064,7 +3049,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>106</v>
@@ -3167,7 +3152,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>108</v>
@@ -3272,7 +3257,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>114</v>
@@ -3315,7 +3300,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3377,7 +3362,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>123</v>
@@ -3403,16 +3388,16 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -3462,7 +3447,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>83</v>
@@ -3474,7 +3459,7 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>121</v>
@@ -3482,13 +3467,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3513,14 +3498,14 @@
         <v>93</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3589,7 +3574,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>106</v>
@@ -3692,7 +3677,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>108</v>
@@ -3797,7 +3782,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>114</v>
@@ -3840,7 +3825,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3902,7 +3887,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>123</v>
@@ -3928,13 +3913,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -3961,13 +3946,13 @@
         <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>77</v>
@@ -3985,7 +3970,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>83</v>
@@ -3997,7 +3982,7 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>121</v>
@@ -4110,10 +4095,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4136,13 +4121,13 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4193,7 +4178,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>83</v>
@@ -4205,7 +4190,7 @@
         <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>121</v>
